--- a/xlsx/FR/policies_win_lose_rich_FR.xlsx
+++ b/xlsx/FR/policies_win_lose_rich_FR.xlsx
@@ -12,30 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">A ban on combustion-engine cars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A green infrastructure program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A carbon tax with cash transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lose a lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostly lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neither win nor lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostly win</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win a lot</t>
   </si>
 </sst>
 </file>
@@ -386,13 +389,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.03464174170394</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.0247868157112185</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0433948612414448</v>
       </c>
     </row>
     <row r="3">
@@ -400,13 +403,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.0839718397919796</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.0797063680441688</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.117845338636281</v>
       </c>
     </row>
     <row r="4">
@@ -414,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.519016397771689</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.496789564201599</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.540500118146635</v>
       </c>
     </row>
     <row r="5">
@@ -428,13 +431,27 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.237140507911246</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.299232704946419</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.20655083497712</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.125229512821145</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0994845470965945</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0917088469985187</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/policies_win_lose_rich_FR.xlsx
+++ b/xlsx/FR/policies_win_lose_rich_FR.xlsx
@@ -389,13 +389,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03464174170394</v>
+        <v>0.0230208107141092</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0247868157112185</v>
+        <v>0.0285834863538332</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0433948612414448</v>
+        <v>0.0468560935053507</v>
       </c>
     </row>
     <row r="3">
@@ -403,13 +403,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0839718397919796</v>
+        <v>0.0762764441821923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0797063680441688</v>
+        <v>0.0771020118884654</v>
       </c>
       <c r="D3" t="n">
-        <v>0.117845338636281</v>
+        <v>0.109334182006968</v>
       </c>
     </row>
     <row r="4">
@@ -417,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.519016397771689</v>
+        <v>0.492283454009268</v>
       </c>
       <c r="C4" t="n">
-        <v>0.496789564201599</v>
+        <v>0.49307748971329</v>
       </c>
       <c r="D4" t="n">
-        <v>0.540500118146635</v>
+        <v>0.518767495035392</v>
       </c>
     </row>
     <row r="5">
@@ -431,13 +431,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.237140507911246</v>
+        <v>0.246517663199647</v>
       </c>
       <c r="C5" t="n">
-        <v>0.299232704946419</v>
+        <v>0.2938818646678</v>
       </c>
       <c r="D5" t="n">
-        <v>0.20655083497712</v>
+        <v>0.223818058728803</v>
       </c>
     </row>
     <row r="6">
@@ -445,13 +445,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.125229512821145</v>
+        <v>0.161901627894784</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0994845470965945</v>
+        <v>0.107355147376611</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0917088469985187</v>
+        <v>0.101224170723486</v>
       </c>
     </row>
   </sheetData>
